--- a/src/results/godclass.xlsx
+++ b/src/results/godclass.xlsx
@@ -14,15 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
-  <si>
-    <t>bell.xlsx</t>
-  </si>
-  <si>
-    <t>tca.xlsx</t>
-  </si>
-  <si>
-    <t>tnb.xlsx</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+  <si>
+    <t>bell (Median)</t>
+  </si>
+  <si>
+    <t>bell (IQR)</t>
+  </si>
+  <si>
+    <t>tca (Median)</t>
+  </si>
+  <si>
+    <t>tca (IQR)</t>
+  </si>
+  <si>
+    <t>tnb (Median)</t>
+  </si>
+  <si>
+    <t>tnb (IQR)</t>
   </si>
   <si>
     <t>aoi</t>
@@ -407,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -415,7 +424,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -425,173 +434,290 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>88</v>
       </c>
       <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>80</v>
       </c>
       <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
         <v>58</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
+        <v>30</v>
+      </c>
+      <c r="F3" t="n">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="G3" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>68</v>
       </c>
       <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
         <v>40</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="n">
+        <v>18</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>69</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>87</v>
       </c>
       <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
         <v>61</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
+        <v>29</v>
+      </c>
+      <c r="F6" t="n">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="G6" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>88</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
         <v>62</v>
       </c>
       <c r="C8" t="n">
+        <v>37</v>
+      </c>
+      <c r="D8" t="n">
         <v>72</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
+        <v>26</v>
+      </c>
+      <c r="F8" t="n">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="G8" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
         <v>79</v>
       </c>
       <c r="C9" t="n">
+        <v>27</v>
+      </c>
+      <c r="D9" t="n">
         <v>59</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
+        <v>28</v>
+      </c>
+      <c r="F9" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="G9" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
         <v>74</v>
       </c>
       <c r="C10" t="n">
+        <v>25</v>
+      </c>
+      <c r="D10" t="n">
         <v>43</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
+        <v>15</v>
+      </c>
+      <c r="F10" t="n">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="G10" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11" t="n">
         <v>81</v>
       </c>
       <c r="C11" t="n">
+        <v>28</v>
+      </c>
+      <c r="D11" t="n">
         <v>58</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
+        <v>30</v>
+      </c>
+      <c r="F11" t="n">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="G11" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12" t="n">
         <v>90</v>
       </c>
       <c r="C12" t="n">
+        <v>13</v>
+      </c>
+      <c r="D12" t="n">
         <v>75</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
+        <v>28</v>
+      </c>
+      <c r="F12" t="n">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="G12" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13" t="n">
         <v>90</v>
       </c>
       <c r="C13" t="n">
+        <v>13</v>
+      </c>
+      <c r="D13" t="n">
         <v>73</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
+        <v>23</v>
+      </c>
+      <c r="F13" t="n">
         <v>39</v>
+      </c>
+      <c r="G13" t="n">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
